--- a/assets/OU/XLSX/ISEC-Telecom_OUs.xlsx
+++ b/assets/OU/XLSX/ISEC-Telecom_OUs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeldidier\Documents\GitHub\ActiveDirectory-Monitoring-CESI-Project\assets\OU\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD94BFA-D04B-4F00-A9CC-97D12A7BC233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFEE7DE-1826-440C-988C-0715D9B6230E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1399" yWindow="1399" windowWidth="19563" windowHeight="10257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Group</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>OU=Service,OU=ISEC-Telecom,OU=Global,DC=isec-telecom,DC=local</t>
+  </si>
+  <si>
+    <t>Technical</t>
   </si>
 </sst>
 </file>
@@ -927,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -938,8 +941,8 @@
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -991,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E9" si="0">"OU="&amp;C3&amp;","&amp;D3</f>
+        <f t="shared" ref="E3:E10" si="0">"OU="&amp;C3&amp;","&amp;D3</f>
         <v>OU=ISEC-Telecom,OU=Global,DC=isec-telecom,DC=local</v>
       </c>
     </row>
@@ -1101,6 +1104,24 @@
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>OU=HR,OU=Service,OU=ISEC-Telecom,OU=Global,DC=isec-telecom,DC=local</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>OU=Technical,OU=Service,OU=ISEC-Telecom,OU=Global,DC=isec-telecom,DC=local</v>
       </c>
     </row>
   </sheetData>
